--- a/team_specific_matrix/North Greenville_A.xlsx
+++ b/team_specific_matrix/North Greenville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1428571428571428</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C2">
-        <v>0.4285714285714285</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.2857142857142857</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1111111111111111</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2222222222222222</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2222222222222222</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="S6">
-        <v>0.4444444444444444</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.6296296296296297</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04545454545454546</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1363636363636364</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09090909090909091</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.09090909090909091</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="R8">
-        <v>0.1818181818181818</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="S8">
-        <v>0.4545454545454545</v>
+        <v>0.6101694915254238</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S9">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0625</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02083333333333333</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0625</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08333333333333333</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1666666666666667</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="R10">
-        <v>0.1041666666666667</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="S10">
-        <v>0.5</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K11">
-        <v>0.1818181818181818</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="L11">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.09090909090909091</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4285714285714285</v>
+        <v>0.64</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5714285714285714</v>
+        <v>0.32</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.125</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I15">
-        <v>0.25</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J17">
-        <v>0.6153846153846154</v>
+        <v>0.425</v>
       </c>
       <c r="K17">
-        <v>0.2307692307692308</v>
+        <v>0.225</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07692307692307693</v>
+        <v>0.15</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07692307692307693</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.5555555555555556</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.1111111111111111</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1111111111111111</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1111111111111111</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01639344262295082</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2950819672131147</v>
+        <v>0.2099447513812155</v>
       </c>
       <c r="I19">
-        <v>0.04918032786885246</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="J19">
-        <v>0.3770491803278688</v>
+        <v>0.3812154696132597</v>
       </c>
       <c r="K19">
-        <v>0.08196721311475409</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01639344262295082</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.03278688524590164</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1311475409836066</v>
+        <v>0.1270718232044199</v>
       </c>
     </row>
   </sheetData>
